--- a/biology/Médecine/Veine_basilique_de_l'avant-bras/Veine_basilique_de_l'avant-bras.xlsx
+++ b/biology/Médecine/Veine_basilique_de_l'avant-bras/Veine_basilique_de_l'avant-bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_basilique_de_l%27avant-bras</t>
+          <t>Veine_basilique_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine basilique de l'avant-bras (ou veine basilique antébrachiale ou veine cubitale superficielle) est une veine superficielle du membre supérieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_basilique_de_l%27avant-bras</t>
+          <t>Veine_basilique_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine basilique de l'avant-bras prolonge la veine salvatelle du petit doigt.
 Elle monte sur le bord interne de la face antérieure de l'avant-bras pour se réunir au-dessus et en dehors de l'épicondyle médial avec la veine médiane cubitale en donnant naissance à la veine basilique. Mais sa terminaison peut avoir plusieurs variations.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_basilique_de_l%27avant-bras</t>
+          <t>Veine_basilique_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle n'est répertoriée que dans la norme TA98 mais pas dans les normes FMA et TA2 qui la confondent avec la veine basilique
 </t>
